--- a/tmp/inputtest1.xlsx
+++ b/tmp/inputtest1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0B8FD895-94A6-4EEA-A4FD-5DEEC9DA6360}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C8C37FF9-8857-4CDE-866A-597648702BF8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="16404" windowHeight="11544" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="16476" windowHeight="13224" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllNodes" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="CALLink" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <oleSize ref="A1:R24"/>
+  <oleSize ref="A1:Q13"/>
 </workbook>
 </file>
 
@@ -838,7 +838,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1872,7 +1872,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1899,7 +1899,7 @@
         <v>0.7</v>
       </c>
       <c r="C2" s="6">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="D2" s="6">
         <v>0.2</v>
@@ -1915,7 +1915,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/tmp/inputtest1.xlsx
+++ b/tmp/inputtest1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14256" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14256" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="AllNodes" sheetId="1" r:id="rId1"/>
@@ -6160,7 +6160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -6656,8 +6656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6684,7 +6684,7 @@
         <v>0.7</v>
       </c>
       <c r="C2" s="3">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="D2" s="3">
         <v>0.2</v>
